--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410E65DA-3900-4D24-9805-76C611DB7758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB5E9D-4AB4-4B49-A67C-CF2651A3A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1670" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="614">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1901,6 +1901,21 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ReceiptAdvice-2::ReceiptAdvice##urn:fdc:peppol.eu:logistics:trns:receipt_advice:1::2.3</t>
+  </si>
+  <si>
+    <t>SETU HR-XML Timecard v1.4.1</t>
+  </si>
+  <si>
+    <t>http://ns.hr-xml.org/2007-04-15::TimeCard##hr-xml@nl-1.4::2.5</t>
+  </si>
+  <si>
+    <t>TICC-266</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:hr-xml:2007:timesheet:1.0</t>
+  </si>
+  <si>
+    <t>Extended use</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2037,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2145,6 +2160,7 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2558,11 +2574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L219"/>
+  <dimension ref="A1:L220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9526,6 +9542,35 @@
         <v>600</v>
       </c>
     </row>
+    <row r="220" spans="1:12">
+      <c r="A220" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>602</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H220" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>613</v>
+      </c>
+      <c r="L220" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L213" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAB5E9D-4AB4-4B49-A67C-CF2651A3A47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613525BD-BD32-4C23-828B-EF430E63D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="620">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1416,9 +1416,6 @@
     <t>OO</t>
   </si>
   <si>
-    <t>TICC-213</t>
-  </si>
-  <si>
     <t>urn:fdc:peppol:transaction-statistics-reporting:1.0::TransactionStatisticsReport##urn:fdc:peppol.eu:oo:trns:transaction-statistics-reporting:1::1.0</t>
   </si>
   <si>
@@ -1916,6 +1913,28 @@
   </si>
   <si>
     <t>Extended use</t>
+  </si>
+  <si>
+    <t>Peppol End User Statistics Report v1.1</t>
+  </si>
+  <si>
+    <t>Peppol Transaction Statistics Report v1.0</t>
+  </si>
+  <si>
+    <t>TICC-261</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:end-user-statistics-report:1.1::EndUserStatisticsReport##urn:fdc:peppol.eu:edec:trns:end-user-statistics-report:1.1::1.1</t>
+  </si>
+  <si>
+    <t>urn:fdc:peppol:transaction-statistics-report:1.0::TransactionStatisticsReport##urn:fdc:peppol.eu:edec:trns:transaction-statistics-reporting:1.0::1.0</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:fdc:peppol.eu:edec:bis:reporting:1.0</t>
+  </si>
+  <si>
+    <t>TICC-213
+TICC-261</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2179,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2574,11 +2595,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L220"/>
+  <dimension ref="A1:L222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A221" sqref="A221"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2624,7 +2645,7 @@
         <v>113</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J1" s="23" t="s">
         <v>114</v>
@@ -3655,7 +3676,7 @@
     </row>
     <row r="32" spans="1:12" ht="30">
       <c r="A32" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>56</v>
@@ -3685,7 +3706,7 @@
     </row>
     <row r="33" spans="1:12" ht="30">
       <c r="A33" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>56</v>
@@ -3807,7 +3828,7 @@
     </row>
     <row r="37" spans="1:12" ht="30">
       <c r="A37" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>56</v>
@@ -3837,7 +3858,7 @@
     </row>
     <row r="38" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A38" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B38" s="32" t="s">
         <v>56</v>
@@ -3852,11 +3873,11 @@
         <v>368</v>
       </c>
       <c r="F38" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G38" s="36"/>
       <c r="H38" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I38" s="37" t="b">
         <f>TRUE</f>
@@ -3874,7 +3895,7 @@
     </row>
     <row r="39" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A39" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B39" s="32" t="s">
         <v>56</v>
@@ -3889,11 +3910,11 @@
         <v>368</v>
       </c>
       <c r="F39" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G39" s="36"/>
       <c r="H39" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I39" s="37" t="b">
         <f>TRUE</f>
@@ -3911,7 +3932,7 @@
     </row>
     <row r="40" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A40" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>56</v>
@@ -3926,11 +3947,11 @@
         <v>368</v>
       </c>
       <c r="F40" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G40" s="36"/>
       <c r="H40" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I40" s="37" t="b">
         <f>TRUE</f>
@@ -3948,7 +3969,7 @@
     </row>
     <row r="41" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A41" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B41" s="32" t="s">
         <v>56</v>
@@ -3963,11 +3984,11 @@
         <v>368</v>
       </c>
       <c r="F41" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I41" s="37" t="b">
         <f>TRUE</f>
@@ -3985,7 +4006,7 @@
     </row>
     <row r="42" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A42" s="37" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B42" s="32" t="s">
         <v>56</v>
@@ -4000,11 +4021,11 @@
         <v>368</v>
       </c>
       <c r="F42" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I42" s="37" t="b">
         <f>TRUE</f>
@@ -4022,7 +4043,7 @@
     </row>
     <row r="43" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A43" s="37" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>56</v>
@@ -4037,11 +4058,11 @@
         <v>368</v>
       </c>
       <c r="F43" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I43" s="37" t="b">
         <f>TRUE</f>
@@ -4071,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F44" s="18">
         <v>5</v>
@@ -4080,7 +4101,7 @@
         <v>45070</v>
       </c>
       <c r="H44" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I44" s="16" t="b">
         <f>FALSE</f>
@@ -4108,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F45" s="18">
         <v>5</v>
@@ -4117,7 +4138,7 @@
         <v>45070</v>
       </c>
       <c r="H45" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I45" s="16" t="b">
         <f>FALSE</f>
@@ -4145,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F46" s="18">
         <v>5</v>
@@ -4154,7 +4175,7 @@
         <v>45070</v>
       </c>
       <c r="H46" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I46" s="16" t="b">
         <f>FALSE</f>
@@ -4290,7 +4311,7 @@
     </row>
     <row r="51" spans="1:12" s="37" customFormat="1" ht="30">
       <c r="A51" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B51" s="32" t="s">
         <v>56</v>
@@ -4324,7 +4345,7 @@
     </row>
     <row r="52" spans="1:12" ht="30">
       <c r="A52" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>56</v>
@@ -4354,7 +4375,7 @@
     </row>
     <row r="53" spans="1:12" ht="30">
       <c r="A53" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>56</v>
@@ -4384,7 +4405,7 @@
     </row>
     <row r="54" spans="1:12" ht="45">
       <c r="A54" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>56</v>
@@ -4399,7 +4420,7 @@
         <v>369</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I54" s="5" t="b">
         <f>TRUE</f>
@@ -4412,12 +4433,12 @@
         <v>117</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="30">
       <c r="A55" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>56</v>
@@ -4447,7 +4468,7 @@
     </row>
     <row r="56" spans="1:12" ht="30">
       <c r="A56" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>56</v>
@@ -4477,7 +4498,7 @@
     </row>
     <row r="57" spans="1:12" ht="30">
       <c r="A57" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>56</v>
@@ -4507,7 +4528,7 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>56</v>
@@ -4537,7 +4558,7 @@
     </row>
     <row r="59" spans="1:12" ht="30">
       <c r="A59" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>56</v>
@@ -4567,7 +4588,7 @@
     </row>
     <row r="60" spans="1:12" ht="30">
       <c r="A60" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>56</v>
@@ -4651,7 +4672,7 @@
     </row>
     <row r="63" spans="1:12" ht="30">
       <c r="A63" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>56</v>
@@ -4718,7 +4739,7 @@
     </row>
     <row r="65" spans="1:12" ht="45">
       <c r="A65" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>56</v>
@@ -4763,16 +4784,16 @@
         <v>5</v>
       </c>
       <c r="E66" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F66" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G66" s="19">
         <v>45070</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I66" s="16" t="b">
         <f>FALSE</f>
@@ -4800,16 +4821,16 @@
         <v>5</v>
       </c>
       <c r="E67" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F67" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G67" s="19">
         <v>45070</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I67" s="16" t="b">
         <f>FALSE</f>
@@ -4837,16 +4858,16 @@
         <v>5</v>
       </c>
       <c r="E68" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F68" s="21" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G68" s="19">
         <v>45070</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I68" s="16" t="b">
         <f>FALSE</f>
@@ -4952,7 +4973,7 @@
     </row>
     <row r="72" spans="1:12" ht="45">
       <c r="A72" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>56</v>
@@ -4985,7 +5006,7 @@
     </row>
     <row r="73" spans="1:12" ht="45">
       <c r="A73" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>56</v>
@@ -5150,7 +5171,7 @@
         <v>7</v>
       </c>
       <c r="E78" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F78" s="21" t="s">
         <v>206</v>
@@ -5159,7 +5180,7 @@
         <v>45070</v>
       </c>
       <c r="H78" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I78" s="16" t="b">
         <f>FALSE</f>
@@ -5187,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="E79" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F79" s="21" t="s">
         <v>206</v>
@@ -5196,7 +5217,7 @@
         <v>45070</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I79" s="16" t="b">
         <f>FALSE</f>
@@ -5224,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="E80" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F80" s="21" t="s">
         <v>206</v>
@@ -5233,7 +5254,7 @@
         <v>45070</v>
       </c>
       <c r="H80" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I80" s="16" t="b">
         <f>FALSE</f>
@@ -5321,7 +5342,7 @@
         <v>7</v>
       </c>
       <c r="E83" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>245</v>
@@ -5330,7 +5351,7 @@
         <v>45070</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I83" s="16" t="b">
         <f>FALSE</f>
@@ -5388,7 +5409,7 @@
         <v>7</v>
       </c>
       <c r="E85" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F85" s="21" t="s">
         <v>206</v>
@@ -5397,7 +5418,7 @@
         <v>45070</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I85" s="16" t="b">
         <f>FALSE</f>
@@ -5425,7 +5446,7 @@
         <v>7</v>
       </c>
       <c r="E86" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F86" s="21" t="s">
         <v>206</v>
@@ -5434,7 +5455,7 @@
         <v>45070</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I86" s="16" t="b">
         <f>FALSE</f>
@@ -5462,7 +5483,7 @@
         <v>7</v>
       </c>
       <c r="E87" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F87" s="21" t="s">
         <v>206</v>
@@ -5471,7 +5492,7 @@
         <v>45070</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I87" s="16" t="b">
         <f>FALSE</f>
@@ -5819,7 +5840,7 @@
         <v>206</v>
       </c>
       <c r="E98" s="25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F98" s="22" t="s">
         <v>245</v>
@@ -5828,7 +5849,7 @@
         <v>45070</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I98" s="16" t="b">
         <f>FALSE</f>
@@ -6771,13 +6792,13 @@
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D130" s="29" t="s">
         <v>297</v>
@@ -6803,7 +6824,7 @@
     </row>
     <row r="131" spans="1:12" ht="30">
       <c r="A131" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>56</v>
@@ -6835,13 +6856,13 @@
     </row>
     <row r="132" spans="1:12">
       <c r="A132" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>56</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D132" s="29" t="s">
         <v>297</v>
@@ -6867,7 +6888,7 @@
     </row>
     <row r="133" spans="1:12" ht="30">
       <c r="A133" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B133" s="5" t="s">
         <v>56</v>
@@ -7956,7 +7977,7 @@
         <v>56</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D169" s="29" t="s">
         <v>297</v>
@@ -8078,13 +8099,13 @@
     </row>
     <row r="173" spans="1:12" s="37" customFormat="1" ht="75">
       <c r="A173" s="37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B173" s="32" t="s">
         <v>56</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D173" s="38" t="s">
         <v>297</v>
@@ -8093,11 +8114,11 @@
         <v>368</v>
       </c>
       <c r="F173" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G173" s="36"/>
       <c r="H173" s="37" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I173" s="37" t="b">
         <v>1</v>
@@ -8120,16 +8141,16 @@
         <v>56</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D174" s="29" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E174" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I174" s="5" t="b">
         <v>1</v>
@@ -8318,9 +8339,9 @@
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" ht="30">
       <c r="A181" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B181" s="4" t="s">
         <v>56</v>
@@ -8332,10 +8353,13 @@
         <v>440</v>
       </c>
       <c r="E181" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="F181" s="44" t="s">
+        <v>601</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>452</v>
+        <v>619</v>
       </c>
       <c r="I181" s="5" t="b">
         <v>1</v>
@@ -8349,22 +8373,25 @@
     </row>
     <row r="182" spans="1:12" ht="30">
       <c r="A182" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D182" s="29" t="s">
         <v>440</v>
       </c>
       <c r="E182" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+      <c r="F182" s="44" t="s">
+        <v>601</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>452</v>
+        <v>619</v>
       </c>
       <c r="I182" s="5" t="b">
         <v>1</v>
@@ -8378,13 +8405,13 @@
     </row>
     <row r="183" spans="1:12" ht="30">
       <c r="A183" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B183" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D183" s="29" t="s">
         <v>440</v>
@@ -8393,7 +8420,7 @@
         <v>369</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I183" s="5" t="b">
         <v>1</v>
@@ -8402,21 +8429,21 @@
         <v>1</v>
       </c>
       <c r="K183" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L183" s="15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30">
       <c r="A184" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D184" s="29" t="s">
         <v>440</v>
@@ -8425,7 +8452,7 @@
         <v>369</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I184" s="5" t="b">
         <v>1</v>
@@ -8434,21 +8461,21 @@
         <v>1</v>
       </c>
       <c r="K184" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="L184" s="14" t="s">
         <v>458</v>
-      </c>
-      <c r="L184" s="14" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30">
       <c r="A185" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B185" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D185" s="29" t="s">
         <v>440</v>
@@ -8457,7 +8484,7 @@
         <v>369</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I185" s="5" t="b">
         <v>1</v>
@@ -8466,59 +8493,59 @@
         <v>1</v>
       </c>
       <c r="K185" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L185" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30">
       <c r="A186" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C186" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B186" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C186" s="5" t="s">
+      <c r="D186" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="D186" s="28" t="s">
+      <c r="E186" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H186" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="I186" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K186" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L186" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="E186" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H186" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="I186" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K186" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L186" s="5" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="45">
       <c r="A187" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="D187" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E187" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H187" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D187" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E187" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H187" s="5" t="s">
-        <v>497</v>
       </c>
       <c r="I187" s="5" t="b">
         <v>0</v>
@@ -8532,22 +8559,22 @@
     </row>
     <row r="188" spans="1:12">
       <c r="A188" t="s">
+        <v>498</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D188" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="E188" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H188" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>501</v>
-      </c>
-      <c r="D188" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="E188" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H188" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="I188" s="5" t="b">
         <f>TRUE</f>
@@ -8565,22 +8592,22 @@
     </row>
     <row r="189" spans="1:12" ht="30">
       <c r="A189" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B189" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C189" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="D189" s="28" t="s">
+        <v>506</v>
+      </c>
+      <c r="E189" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H189" s="5" t="s">
         <v>502</v>
-      </c>
-      <c r="D189" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="E189" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H189" s="5" t="s">
-        <v>503</v>
       </c>
       <c r="I189" s="5" t="b">
         <v>1</v>
@@ -8592,27 +8619,27 @@
         <v>117</v>
       </c>
       <c r="L189" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30">
       <c r="A190" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D190" s="28" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E190" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I190" s="5" t="b">
         <v>1</v>
@@ -8624,27 +8651,27 @@
         <v>117</v>
       </c>
       <c r="L190" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30">
       <c r="A191" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B191" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C191" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D191" s="28" t="s">
         <v>506</v>
       </c>
-      <c r="D191" s="28" t="s">
-        <v>507</v>
-      </c>
       <c r="E191" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I191" s="5" t="b">
         <v>1</v>
@@ -8656,27 +8683,27 @@
         <v>117</v>
       </c>
       <c r="L191" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30">
       <c r="A192" s="5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D192" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E192" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H192" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="E192" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="I192" s="5" t="b">
         <v>0</v>
@@ -8690,22 +8717,22 @@
     </row>
     <row r="193" spans="1:12" ht="30">
       <c r="A193" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B193" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D193" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E193" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H193" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="E193" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="I193" s="5" t="b">
         <v>0</v>
@@ -8719,22 +8746,22 @@
     </row>
     <row r="194" spans="1:12" ht="30">
       <c r="A194" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="D194" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="D194" s="29" t="s">
+      <c r="E194" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H194" s="5" t="s">
         <v>522</v>
-      </c>
-      <c r="E194" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H194" s="5" t="s">
-        <v>523</v>
       </c>
       <c r="I194" s="5" t="b">
         <v>0</v>
@@ -8748,22 +8775,22 @@
     </row>
     <row r="195" spans="1:12" ht="30">
       <c r="A195" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B195" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C195" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="D195" s="29" t="s">
+        <v>521</v>
+      </c>
+      <c r="E195" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H195" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="D195" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="E195" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="I195" s="5" t="b">
         <v>0</v>
@@ -8777,22 +8804,22 @@
     </row>
     <row r="196" spans="1:12" ht="45">
       <c r="A196" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D196" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E196" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I196" s="5" t="b">
         <v>0</v>
@@ -8806,22 +8833,22 @@
     </row>
     <row r="197" spans="1:12" ht="45">
       <c r="A197" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B197" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D197" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E197" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I197" s="5" t="b">
         <v>0</v>
@@ -8835,22 +8862,22 @@
     </row>
     <row r="198" spans="1:12">
       <c r="A198" t="s">
+        <v>535</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C198" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C198" s="5" t="s">
+      <c r="D198" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="D198" s="28" t="s">
+      <c r="E198" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H198" s="5" t="s">
         <v>538</v>
-      </c>
-      <c r="E198" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H198" s="5" t="s">
-        <v>539</v>
       </c>
       <c r="I198" s="5" t="b">
         <f>TRUE</f>
@@ -8863,27 +8890,27 @@
         <v>117</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="199" spans="1:12" ht="30">
       <c r="A199" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B199" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E199" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I199" s="5" t="b">
         <f>TRUE</f>
@@ -8896,27 +8923,27 @@
         <v>116</v>
       </c>
       <c r="L199" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="200" spans="1:12" ht="30">
       <c r="A200" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C200" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D200" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="E200" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H200" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="D200" s="28" t="s">
-        <v>538</v>
-      </c>
-      <c r="E200" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H200" s="5" t="s">
-        <v>545</v>
       </c>
       <c r="I200" s="5" t="b">
         <f>TRUE</f>
@@ -8929,27 +8956,27 @@
         <v>116</v>
       </c>
       <c r="L200" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="201" spans="1:12" ht="30">
       <c r="A201" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B201" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D201" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E201" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I201" s="5" t="b">
         <f>TRUE</f>
@@ -8962,27 +8989,27 @@
         <v>116</v>
       </c>
       <c r="L201" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="202" spans="1:12" ht="30">
       <c r="A202" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D202" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E202" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H202" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I202" s="5" t="b">
         <f>TRUE</f>
@@ -8995,27 +9022,27 @@
         <v>116</v>
       </c>
       <c r="L202" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="30">
       <c r="A203" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B203" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E203" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H203" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I203" s="5" t="b">
         <v>1</v>
@@ -9027,27 +9054,27 @@
         <v>116</v>
       </c>
       <c r="L203" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="204" spans="1:12" ht="30">
       <c r="A204" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B204" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E204" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H204" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I204" s="5" t="b">
         <v>1</v>
@@ -9059,27 +9086,27 @@
         <v>116</v>
       </c>
       <c r="L204" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="205" spans="1:12">
       <c r="A205" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B205" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E205" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H205" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I205" s="5" t="b">
         <v>1</v>
@@ -9091,27 +9118,27 @@
         <v>116</v>
       </c>
       <c r="L205" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:12" ht="30">
       <c r="A206" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B206" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D206" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E206" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H206" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I206" s="5" t="b">
         <v>1</v>
@@ -9123,27 +9150,27 @@
         <v>116</v>
       </c>
       <c r="L206" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:12">
       <c r="A207" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C207" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B207" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C207" s="5" t="s">
-        <v>563</v>
-      </c>
       <c r="D207" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E207" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H207" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I207" s="5" t="b">
         <v>1</v>
@@ -9155,27 +9182,27 @@
         <v>116</v>
       </c>
       <c r="L207" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="208" spans="1:12">
       <c r="A208" s="5" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B208" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D208" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E208" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H208" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I208" s="5" t="b">
         <v>1</v>
@@ -9187,27 +9214,27 @@
         <v>116</v>
       </c>
       <c r="L208" s="5" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="1:12">
       <c r="A209" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B209" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D209" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E209" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H209" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I209" s="5" t="b">
         <v>1</v>
@@ -9219,27 +9246,27 @@
         <v>116</v>
       </c>
       <c r="L209" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="30">
       <c r="A210" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D210" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E210" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H210" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I210" s="5" t="b">
         <v>1</v>
@@ -9251,27 +9278,27 @@
         <v>116</v>
       </c>
       <c r="L210" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="211" spans="1:12" ht="30">
       <c r="A211" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B211" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D211" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E211" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H211" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I211" s="5" t="b">
         <v>1</v>
@@ -9283,27 +9310,27 @@
         <v>116</v>
       </c>
       <c r="L211" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="212" spans="1:12" ht="30">
       <c r="A212" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B212" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E212" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H212" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I212" s="5" t="b">
         <v>1</v>
@@ -9315,27 +9342,27 @@
         <v>116</v>
       </c>
       <c r="L212" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="213" spans="1:12" ht="30">
       <c r="A213" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B213" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D213" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E213" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H213" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I213" s="5" t="b">
         <v>1</v>
@@ -9347,27 +9374,27 @@
         <v>116</v>
       </c>
       <c r="L213" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="214" spans="1:12" ht="30">
       <c r="A214" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B214" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D214" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E214" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H214" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I214" s="5" t="b">
         <v>1</v>
@@ -9376,30 +9403,30 @@
         <v>1</v>
       </c>
       <c r="K214" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L214" s="43" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:12" ht="30">
       <c r="A215" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B215" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E215" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H215" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I215" s="5" t="b">
         <v>1</v>
@@ -9408,30 +9435,30 @@
         <v>1</v>
       </c>
       <c r="K215" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L215" s="43" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="216" spans="1:12">
       <c r="A216" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B216" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E216" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H216" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I216" s="5" t="b">
         <v>1</v>
@@ -9440,30 +9467,30 @@
         <v>1</v>
       </c>
       <c r="K216" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L216" s="43" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="217" spans="1:12" ht="30">
       <c r="A217" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B217" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E217" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H217" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I217" s="5" t="b">
         <v>1</v>
@@ -9472,30 +9499,30 @@
         <v>1</v>
       </c>
       <c r="K217" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L217" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="218" spans="1:12" ht="30">
       <c r="A218" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B218" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D218" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E218" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H218" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I218" s="5" t="b">
         <v>1</v>
@@ -9504,30 +9531,30 @@
         <v>1</v>
       </c>
       <c r="K218" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L218" s="43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="219" spans="1:12" ht="30">
       <c r="A219" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B219" s="4" t="s">
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D219" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E219" s="24" t="s">
         <v>369</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I219" s="5" t="b">
         <v>1</v>
@@ -9536,39 +9563,97 @@
         <v>1</v>
       </c>
       <c r="K219" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L219" s="43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="220" spans="1:12">
       <c r="A220" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C220" t="s">
         <v>609</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C220" s="44" t="s">
+      <c r="D220" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E220" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H220" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="D220" s="28" t="s">
-        <v>602</v>
-      </c>
-      <c r="E220" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H220" s="5" t="s">
+      <c r="I220" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K220" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="L220" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="I220" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K220" s="24" t="s">
+    </row>
+    <row r="221" spans="1:12" ht="30">
+      <c r="A221" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="L220" s="5" t="s">
-        <v>612</v>
+      <c r="B221" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C221" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D221" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E221" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H221" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I221" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K221" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L221" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" ht="30">
+      <c r="A222" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D222" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E222" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="I222" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K222" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="L222" s="5" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613525BD-BD32-4C23-828B-EF430E63D9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E414DB8-9FD2-4949-94BC-DE699095D2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$213</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$231</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="633">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1935,6 +1935,45 @@
   <si>
     <t>TICC-213
 TICC-261</t>
+  </si>
+  <si>
+    <t>peppol-doctype-wildcard</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-270</t>
+  </si>
+  <si>
+    <t>cenbii-procid-ubl::urn:peppol:bis:billing</t>
+  </si>
+  <si>
+    <t>Peppol PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>Peppol PINT CreditNote v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@jp-1::2.1</t>
+  </si>
+  <si>
+    <t>JP PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>JP PINT CreditNote v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@jp-1::2.1</t>
+  </si>
+  <si>
+    <t>JP BIS Invoice for Non-tax Registered Businesses</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:nontaxinvoice-1@jp-1::2.1</t>
   </si>
 </sst>
 </file>
@@ -2595,17 +2634,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L222"/>
+  <dimension ref="A1:L231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="24" bestFit="1" customWidth="1"/>
@@ -9656,8 +9695,290 @@
         <v>618</v>
       </c>
     </row>
+    <row r="223" spans="1:12">
+      <c r="A223" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B223" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C223" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D223" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E223" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H223" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I223" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K223" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L223" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B224" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C224" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E224" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H224" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I224" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K224" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L224" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225" t="s">
+        <v>628</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C225" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D225" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E225" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H225" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I225" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J225" s="24">
+        <v>3</v>
+      </c>
+      <c r="K225" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L225" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226" t="s">
+        <v>628</v>
+      </c>
+      <c r="B226" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C226" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D226" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E226" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H226" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I226" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J226" s="24">
+        <v>3</v>
+      </c>
+      <c r="K226" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L226" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227" t="s">
+        <v>629</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E227" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I227" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J227" s="24">
+        <v>3</v>
+      </c>
+      <c r="K227" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L227" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228" t="s">
+        <v>629</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D228" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E228" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H228" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I228" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J228" s="24">
+        <v>3</v>
+      </c>
+      <c r="K228" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L228" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229" t="s">
+        <v>535</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E229" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H229" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I229" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J229" s="24">
+        <v>3</v>
+      </c>
+      <c r="K229" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L229" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230" t="s">
+        <v>631</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I230" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="24">
+        <v>3</v>
+      </c>
+      <c r="K230" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231" t="s">
+        <v>631</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="I231" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="24">
+        <v>3</v>
+      </c>
+      <c r="K231" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L231" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L213" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L231" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E414DB8-9FD2-4949-94BC-DE699095D2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FF991-532B-4136-9BB7-089AC0129A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24750" yWindow="870" windowWidth="20280" windowHeight="20010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -2636,9 +2636,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
   <dimension ref="A1:L231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A231" sqref="A231"/>
+      <selection pane="bottomLeft" activeCell="J223" sqref="J223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2658,7 +2658,7 @@
     <col min="13" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="30">
       <c r="A1" s="2" t="s">
         <v>124</v>
       </c>
@@ -9717,6 +9717,9 @@
       <c r="I223" s="5" t="b">
         <v>1</v>
       </c>
+      <c r="J223" s="24">
+        <v>3</v>
+      </c>
       <c r="K223" s="24" t="s">
         <v>117</v>
       </c>
@@ -9745,6 +9748,9 @@
       </c>
       <c r="I224" s="5" t="b">
         <v>1</v>
+      </c>
+      <c r="J224" s="24">
+        <v>3</v>
       </c>
       <c r="K224" s="24" t="s">
         <v>117</v>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838FF991-532B-4136-9BB7-089AC0129A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFB1F3-A985-4BD4-B0E5-127015EFB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24750" yWindow="870" windowWidth="20280" windowHeight="20010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$231</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$229</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="631">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1962,12 +1962,6 @@
   </si>
   <si>
     <t>JP PINT Invoice v1.0</t>
-  </si>
-  <si>
-    <t>JP PINT CreditNote v1.0</t>
-  </si>
-  <si>
-    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@jp-1::2.1</t>
   </si>
   <si>
     <t>JP BIS Invoice for Non-tax Registered Businesses</t>
@@ -2634,11 +2628,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L231"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J223" sqref="J223"/>
+      <selection pane="bottomLeft" activeCell="A223" sqref="A223:XFD229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9825,13 +9819,13 @@
     </row>
     <row r="227" spans="1:12">
       <c r="A227" t="s">
-        <v>629</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>56</v>
+        <v>535</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>620</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
       <c r="D227" s="28" t="s">
         <v>601</v>
@@ -9852,15 +9846,15 @@
         <v>117</v>
       </c>
       <c r="L227" s="5" t="s">
-        <v>623</v>
+        <v>539</v>
       </c>
     </row>
     <row r="228" spans="1:12">
       <c r="A228" t="s">
         <v>629</v>
       </c>
-      <c r="B228" s="5" t="s">
-        <v>620</v>
+      <c r="B228" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C228" s="5" t="s">
         <v>630</v>
@@ -9889,13 +9883,13 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" t="s">
-        <v>535</v>
+        <v>629</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>620</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>536</v>
+        <v>630</v>
       </c>
       <c r="D229" s="28" t="s">
         <v>601</v>
@@ -9916,75 +9910,11 @@
         <v>117</v>
       </c>
       <c r="L229" s="5" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="230" spans="1:12">
-      <c r="A230" t="s">
-        <v>631</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D230" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="E230" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H230" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="I230" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" s="24">
-        <v>3</v>
-      </c>
-      <c r="K230" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L230" s="5" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="231" spans="1:12">
-      <c r="A231" t="s">
-        <v>631</v>
-      </c>
-      <c r="B231" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="C231" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="D231" s="28" t="s">
-        <v>601</v>
-      </c>
-      <c r="E231" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="H231" s="5" t="s">
-        <v>622</v>
-      </c>
-      <c r="I231" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" s="24">
-        <v>3</v>
-      </c>
-      <c r="K231" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="L231" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L231" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFB1F3-A985-4BD4-B0E5-127015EFB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DEA58-64CF-4991-B4EA-D4A5A71B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24750" yWindow="870" windowWidth="20280" windowHeight="20010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
@@ -2631,8 +2631,8 @@
   <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A223" sqref="A223:XFD229"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>

--- a/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v8.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\git-peppol\peppol-edec-codelists\work-in-progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88DEA58-64CF-4991-B4EA-D4A5A71B9995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3298D53-E276-4D38-9C5C-B0570F183ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Document Type" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Document Type'!$A$1:$L$237</definedName>
     <definedName name="_ftn1" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn2" localSheetId="0">'Document Type'!#REF!</definedName>
     <definedName name="_ftn3" localSheetId="0">'Document Type'!#REF!</definedName>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1816" uniqueCount="640">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -1968,6 +1968,33 @@
   </si>
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:nontaxinvoice-1@jp-1::2.1</t>
+  </si>
+  <si>
+    <t>A-NZ PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@aunz-1::2.1</t>
+  </si>
+  <si>
+    <t>A-NZ PINT Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@aunz-1::2.1</t>
+  </si>
+  <si>
+    <t>A-NZ PINT Self-Billing Invoice v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:selfbilling-1@aunz-1::2.1</t>
+  </si>
+  <si>
+    <t>A-NZ PINT Self-Billing Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:selfbilling-1@aunz-1::2.1</t>
+  </si>
+  <si>
+    <t>TICC-279</t>
   </si>
 </sst>
 </file>
@@ -2089,7 +2116,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2212,9 +2239,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2628,18 +2652,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:L229"/>
+  <dimension ref="A1:L237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A227" sqref="A227"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A237" sqref="A237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="47.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="103.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="97.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
@@ -2928,7 +2952,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="9" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A9" s="32" t="s">
         <v>28</v>
       </c>
@@ -3033,7 +3057,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="12" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A12" s="32" t="s">
         <v>25</v>
       </c>
@@ -3101,7 +3125,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="14" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A14" s="32" t="s">
         <v>101</v>
       </c>
@@ -3169,7 +3193,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="16" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A16" s="32" t="s">
         <v>101</v>
       </c>
@@ -3271,7 +3295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="19" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A19" s="37" t="s">
         <v>96</v>
       </c>
@@ -3373,7 +3397,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="22" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A22" s="37" t="s">
         <v>98</v>
       </c>
@@ -3441,7 +3465,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="37" customFormat="1" ht="30">
+    <row r="24" spans="1:12" s="37" customFormat="1" ht="45">
       <c r="A24" s="37" t="s">
         <v>98</v>
       </c>
@@ -4222,7 +4246,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" ht="30">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -4703,7 +4727,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30">
+    <row r="63" spans="1:12" ht="45">
       <c r="A63" s="5" t="s">
         <v>479</v>
       </c>
@@ -5799,7 +5823,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="30">
+    <row r="96" spans="1:12" ht="45">
       <c r="A96" s="5" t="s">
         <v>202</v>
       </c>
@@ -6823,7 +6847,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="5" t="s">
         <v>483</v>
       </c>
@@ -6887,7 +6911,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" ht="30">
       <c r="A132" s="5" t="s">
         <v>485</v>
       </c>
@@ -7125,7 +7149,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30">
+    <row r="140" spans="1:12" ht="45">
       <c r="A140" s="5" t="s">
         <v>313</v>
       </c>
@@ -7444,7 +7468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="30">
+    <row r="151" spans="1:12" ht="45">
       <c r="A151" s="5" t="s">
         <v>359</v>
       </c>
@@ -7970,7 +7994,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" ht="30">
       <c r="A168" s="5" t="s">
         <v>407</v>
       </c>
@@ -8066,7 +8090,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" ht="30">
       <c r="A171" s="5" t="s">
         <v>412</v>
       </c>
@@ -8285,7 +8309,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="30">
+    <row r="178" spans="1:12" ht="45">
       <c r="A178" s="5" t="s">
         <v>437</v>
       </c>
@@ -8372,67 +8396,71 @@
         <v>130</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="30">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:12" s="37" customFormat="1" ht="30">
+      <c r="A181" s="37" t="s">
         <v>487</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="5" t="s">
+      <c r="B181" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="E181" s="24" t="s">
+      <c r="E181" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F181" s="44" t="s">
+      <c r="F181" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="G181" s="36"/>
+      <c r="H181" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="I181" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K181" s="24" t="s">
+      <c r="I181" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" s="34"/>
+      <c r="K181" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="L181" s="5" t="s">
+      <c r="L181" s="37" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="30">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:12" s="37" customFormat="1" ht="45">
+      <c r="A182" s="37" t="s">
         <v>488</v>
       </c>
-      <c r="B182" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C182" s="5" t="s">
+      <c r="B182" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C182" s="37" t="s">
         <v>452</v>
       </c>
-      <c r="D182" s="29" t="s">
+      <c r="D182" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="E182" s="24" t="s">
+      <c r="E182" s="34" t="s">
         <v>368</v>
       </c>
-      <c r="F182" s="44" t="s">
+      <c r="F182" s="41" t="s">
         <v>601</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="G182" s="36"/>
+      <c r="H182" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="I182" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K182" s="24" t="s">
+      <c r="I182" s="37" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" s="34"/>
+      <c r="K182" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="L182" s="5" t="s">
+      <c r="L182" s="37" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8806,7 +8834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="30">
+    <row r="195" spans="1:12" ht="45">
       <c r="A195" s="5" t="s">
         <v>526</v>
       </c>
@@ -9218,7 +9246,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" ht="30">
       <c r="A208" s="5" t="s">
         <v>560</v>
       </c>
@@ -9250,7 +9278,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" ht="30">
       <c r="A209" s="5" t="s">
         <v>565</v>
       </c>
@@ -9410,7 +9438,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="30">
+    <row r="214" spans="1:12" ht="45">
       <c r="A214" s="5" t="s">
         <v>588</v>
       </c>
@@ -9474,7 +9502,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" ht="30">
       <c r="A216" s="5" t="s">
         <v>590</v>
       </c>
@@ -9660,7 +9688,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="30">
+    <row r="222" spans="1:12" ht="45">
       <c r="A222" s="5" t="s">
         <v>614</v>
       </c>
@@ -9837,7 +9865,7 @@
         <v>622</v>
       </c>
       <c r="I227" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="24">
         <v>3</v>
@@ -9849,7 +9877,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" ht="30">
       <c r="A228" t="s">
         <v>629</v>
       </c>
@@ -9869,7 +9897,7 @@
         <v>622</v>
       </c>
       <c r="I228" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="24">
         <v>3</v>
@@ -9881,7 +9909,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" ht="30">
       <c r="A229" t="s">
         <v>629</v>
       </c>
@@ -9901,7 +9929,7 @@
         <v>622</v>
       </c>
       <c r="I229" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" s="24">
         <v>3</v>
@@ -9913,8 +9941,264 @@
         <v>623</v>
       </c>
     </row>
+    <row r="230" spans="1:12">
+      <c r="A230" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D230" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E230" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H230" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I230" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" s="24">
+        <v>3</v>
+      </c>
+      <c r="K230" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L230" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" ht="30">
+      <c r="A231" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B231" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H231" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I231" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" s="24">
+        <v>3</v>
+      </c>
+      <c r="K231" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L231" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" ht="30">
+      <c r="A232" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D232" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E232" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I232" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="24">
+        <v>3</v>
+      </c>
+      <c r="K232" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L232" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" ht="30">
+      <c r="A233" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D233" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E233" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H233" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I233" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="24">
+        <v>3</v>
+      </c>
+      <c r="K233" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L233" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D234" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E234" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H234" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I234" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" s="24">
+        <v>3</v>
+      </c>
+      <c r="K234" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L234" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" ht="30">
+      <c r="A235" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D235" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E235" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H235" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I235" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" s="24">
+        <v>3</v>
+      </c>
+      <c r="K235" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L235" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" ht="30">
+      <c r="A236" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D236" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E236" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I236" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="24">
+        <v>3</v>
+      </c>
+      <c r="K236" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L236" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" ht="30">
+      <c r="A237" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D237" s="28" t="s">
+        <v>601</v>
+      </c>
+      <c r="E237" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="H237" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="I237" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="24">
+        <v>3</v>
+      </c>
+      <c r="K237" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L229" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:L237" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
